--- a/data/trans_dic/P75-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P75-Edad-trans_dic.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,23; 30,61</t>
+          <t>22,32; 31,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,1; 21,88</t>
+          <t>13,43; 20,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,19; 34,27</t>
+          <t>25,59; 34,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,25; 21,49</t>
+          <t>14,4; 21,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,82; 30,6</t>
+          <t>25,0; 30,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,87; 20,35</t>
+          <t>14,9; 20,24</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,51; 31,87</t>
+          <t>25,02; 32,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,49; 19,27</t>
+          <t>13,64; 19,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,06; 34,11</t>
+          <t>26,21; 33,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,03; 21,24</t>
+          <t>14,74; 20,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,64; 31,83</t>
+          <t>26,7; 32,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,99; 19,3</t>
+          <t>15,09; 19,68</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,29; 34,85</t>
+          <t>27,61; 34,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,68; 16,17</t>
+          <t>10,69; 15,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,95; 34,75</t>
+          <t>27,7; 34,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,43; 18,24</t>
+          <t>12,68; 18,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,5; 33,65</t>
+          <t>28,6; 33,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,43; 16,38</t>
+          <t>12,39; 16,09</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,84; 29,5</t>
+          <t>21,66; 29,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,11; 16,78</t>
+          <t>11,13; 17,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,12; 29,74</t>
+          <t>22,33; 29,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,34; 18,0</t>
+          <t>12,43; 18,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,93; 28,27</t>
+          <t>23,08; 28,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,67; 16,66</t>
+          <t>12,56; 16,37</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,33; 27,39</t>
+          <t>18,48; 26,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,61; 16,38</t>
+          <t>9,74; 16,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,11; 28,35</t>
+          <t>19,64; 28,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,54; 15,54</t>
+          <t>9,41; 15,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,32; 26,21</t>
+          <t>20,3; 26,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,26; 14,97</t>
+          <t>10,5; 14,89</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,45; 26,44</t>
+          <t>18,89; 26,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,58; 15,0</t>
+          <t>9,84; 14,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,22; 24,35</t>
+          <t>17,86; 24,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,15; 15,29</t>
+          <t>10,2; 15,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,46; 24,23</t>
+          <t>19,27; 23,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,69; 14,63</t>
+          <t>10,45; 14,14</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>24,73; 27,97</t>
+          <t>24,79; 27,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,95; 15,32</t>
+          <t>12,97; 15,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>25,53; 28,54</t>
+          <t>25,38; 28,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,68; 16,14</t>
+          <t>13,63; 16,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,53; 27,79</t>
+          <t>25,58; 27,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,75; 15,4</t>
+          <t>13,77; 15,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P75-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P75-Edad-trans_dic.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,32; 31,09</t>
+          <t>22,33; 30,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,43; 20,88</t>
+          <t>13,85; 21,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,59; 34,34</t>
+          <t>25,62; 34,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,4; 21,88</t>
+          <t>14,39; 21,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,0; 30,96</t>
+          <t>24,96; 31,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,9; 20,24</t>
+          <t>14,98; 20,43</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,02; 32,01</t>
+          <t>25,06; 32,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,64; 19,71</t>
+          <t>13,78; 19,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,21; 33,87</t>
+          <t>26,35; 34,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,74; 20,99</t>
+          <t>14,92; 21,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,7; 32,03</t>
+          <t>26,52; 31,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,09; 19,68</t>
+          <t>15,09; 19,45</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,61; 34,92</t>
+          <t>27,16; 34,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,69; 15,92</t>
+          <t>10,84; 16,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,7; 34,89</t>
+          <t>27,99; 35,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,68; 18,22</t>
+          <t>12,57; 18,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,6; 33,82</t>
+          <t>28,73; 34,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,39; 16,09</t>
+          <t>12,66; 16,43</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,66; 29,11</t>
+          <t>21,75; 29,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,13; 17,12</t>
+          <t>11,19; 17,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,33; 29,88</t>
+          <t>22,38; 29,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,43; 18,23</t>
+          <t>12,22; 17,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,08; 28,43</t>
+          <t>23,22; 28,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,56; 16,37</t>
+          <t>12,47; 16,6</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,48; 26,88</t>
+          <t>18,07; 27,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,74; 16,28</t>
+          <t>9,87; 16,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,64; 28,48</t>
+          <t>19,81; 27,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,41; 15,67</t>
+          <t>9,44; 15,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,3; 26,57</t>
+          <t>20,23; 26,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,5; 14,89</t>
+          <t>10,54; 15,09</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,89; 26,63</t>
+          <t>18,6; 26,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,84; 14,67</t>
+          <t>9,47; 14,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,86; 24,19</t>
+          <t>17,76; 24,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,2; 15,53</t>
+          <t>10,12; 15,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,27; 23,75</t>
+          <t>19,25; 24,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,45; 14,14</t>
+          <t>10,54; 14,2</t>
         </is>
       </c>
     </row>
@@ -1119,12 +1119,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>24,79; 27,85</t>
+          <t>24,75; 28,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,97; 15,4</t>
+          <t>12,98; 15,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1134,17 +1134,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,63; 16,15</t>
+          <t>13,66; 16,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,58; 27,78</t>
+          <t>25,49; 27,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,77; 15,42</t>
+          <t>13,64; 15,43</t>
         </is>
       </c>
     </row>
